--- a/Internship_Factor/Internship_Factor.xlsx
+++ b/Internship_Factor/Internship_Factor.xlsx
@@ -1,231 +1,487 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\April2018\Factor_Factory\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{5B540B5C-5BD3-49FC-97D2-252C7D2DFCBE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
-  <si>
-    <t>['alpha68' 'PEHist120' 'BBIC' 'OperatingRevenueGrowRate5Y' 'alpha189' 'SBM'
- 'Beta120' 'OperatingProfitToTOR' 'NOCFTToOperatingNI'
- 'SaleServiceCashToORLastest' 'ROEWeighted' 'DIFF' 'LongTernDebtToAsset']</t>
-  </si>
-  <si>
-    <t>['DDNCR' 'alpha168' 'Variance120' 'alpha37' 'AccountsPayablesTDays'
- 'DividendPS' 'alpha32' 'OperCashGrowRate' 'OperatingExpenseRate' 'CCI88'
- 'alpha28' 'alpha170' 'NPToTOR']</t>
-  </si>
-  <si>
-    <t>['alpha136' 'alpha25' 'BR' 'RealizedVolatility' 'alpha58' 'CCI20' 'alpha80'
- 'ToTalAssetsTrate' 'DEGM' 'ForwardPE' 'minusDI' 'alpha122' 'alpha73']</t>
-  </si>
-  <si>
-    <t>['OperatingProfitPS' 'alpha120' 'HsigmaCNE5' 'alpha71' 'revs20'
- 'MPParentCompanyGrowRate' 'Alpha20' 'alpha13' 'alpha108' 'alpha61'
- 'alpha41' 'StaticPE' 'OperatingNIToTP']</t>
-  </si>
-  <si>
-    <t>['alpha49' 'alpha55' 'CCI10' 'alpha54' 'DividendCover' 'alpha97'
- 'DilutedEPS' 'alpha74' 'alpha14' 'DIFF' 'ChandeSD' 'alpha92' 'BollDown']</t>
-  </si>
-  <si>
-    <t>['alpha175' 'alpha123' 'InformationRatio60' 'ATR14' 'CMO' 'GainVariance120'
- 'alpha72' 'alpha44' 'InteBearDebtToTotalCapital' 'alpha90'
- 'BondsPayableToAsset' 'ChaikinOscillator' 'Variance20']</t>
-  </si>
-  <si>
-    <t>['NetNonOIToTP' 'ROE5' 'SGRO' 'NegMktValue' 'alpha24' 'alpha23' 'ROC20'
- 'alpha165' 'CFO2EV' 'REVS120' 'alpha178' 'ADXR' 'PlusDI']</t>
-  </si>
-  <si>
-    <t>['alpha77' 'ASI' 'PE' 'rstr12' 'Rank1M' 'MA10RegressCoeff6' 'OBV6'
- 'alpha112' 'BollUp' 'TSEPToTotalCapital' 'InventoryTRate' 'GainVariance20'
- 'OperatingProfitGrowRate']</t>
-  </si>
-  <si>
-    <t>['EMA26' 'MA5' 'GainVariance60' 'NOCFToTLiability' 'UndividedProfitPS'
- 'Illiquidity' 'ROAEBITTM' 'ARTRate' 'PCF' 'REVS60'
- 'NOCFToInterestBearDebt' 'ROIC' 'TEMA10']</t>
-  </si>
-  <si>
-    <t>['alpha190' 'alpha70' 'EMA20' 'TRIX5' 'SaleServiceCashToOR'
- 'TotalAssetGrowRate' 'alpha188' 'FixAssetRatio' 'Price3M' 'STOA' 'DIZ'
- 'BIAS5' 'SharpeRatio60']</t>
-  </si>
-  <si>
-    <t>['DAVOL10' 'STM' 'alpha158' 'alpha36' 'TEMA5' 'OperatingRevenuePS'
- 'alpha166' 'alpha38' 'alpha82' 'NetNonOIToTPLatest' 'KDJ_J'
- 'CashRateOfSales' 'RetainedEarningsPS']</t>
-  </si>
-  <si>
-    <t>['DBCD' 'alpha29' 'alpha150' 'Rstr504' 'alpha126' 'Dvrat'
- 'CashToCurrentLiability' 'OperCashInToAsset' 'OBV' 'alpha15' 'VOL120'
- 'CashDividendCover' 'alpha81']</t>
-  </si>
-  <si>
-    <t>['Hurst' 'BIAS20' 'alpha187' 'LCAP' 'STOM' 'ROA5' 'TRIX10' 'ETOP5' 'MA120'
- 'alpha65' 'alpha17' 'alpha135' 'MoneyFlow20']</t>
-  </si>
-  <si>
-    <t>['REVS750' 'alpha98' 'OperatingRevenueGrowRate3Y' 'Variance60' 'VR'
- 'ShareholderFCFPS' 'Volumn1M' 'InvestCashGrowRate' 'EMA5' 'alpha140'
- 'alpha103' 'ROECut' 'PVT']</t>
-  </si>
-  <si>
-    <t>['alpha42' 'alpha137' 'alpha101' 'alpha18' 'alpha45' 'alpha132' 'acd20'
- 'EA' 'NetAssetGrowRate' 'alpha57' 'NetCashFlowGrowRate' 'minusDI' 'VEMA26']</t>
-  </si>
-  <si>
-    <t>['ROE' 'DAVOL20' 'CCI5' 'alpha151' 'ADX' 'VOSC' 'FixedAssetsTrate'
- 'alpha50' 'Kurtosis20' 'EMA60' 'alpha180' 'MA10Close' 'DDI']</t>
-  </si>
-  <si>
-    <t>['alpha21' 'ROECutWeighted' 'ROAEBIT' 'OperCashFlowPS' 'DownRVI' 'DHILO'
- 'PB' 'VOL20' 'alpha134' 'TORPSLatest' 'alpha144' 'alpha160' 'alpha148']</t>
-  </si>
-  <si>
-    <t>['KDJ_D' 'FinancingCashGrowRate' 'alpha96' 'alpha35' 'Kurtosis120'
- 'alpha31' 'alpha86' 'alpha164' 'alpha47' 'alpha111' 'AR' 'CashFlowPS'
- 'RetainedEarningRatio']</t>
-  </si>
-  <si>
-    <t>['Fiftytwoweekhigh' 'FinancialExpenseRate' 'revs10' 'alpha85' 'alpha177'
- 'MTMMA' 'TangibleAToInteBearDebt' 'Wvad' 'KDJ_K' 'MA60' 'alpha110'
- 'alpha157' 'Beta252']</t>
-  </si>
-  <si>
-    <t>['alpha51' 'InventoryTDays' 'TangibleAToNetDebt' 'EMA12' 'alpha91'
- 'CashConversionCycle' 'VSTD20' 'VDEA' 'alpha143' 'alpha115' 'alpha119'
- 'Aroon' 'alpha102']</t>
-  </si>
-  <si>
-    <t>['PS' 'alpha147' 'Price1M' 'alpha78' 'OperatingNIToTPLatest' 'alpha12'
- 'PLRC6' 'CTOP' 'alpha121' 'AD20' 'alpha133' 'alpha138' 'alpha106']</t>
-  </si>
-  <si>
-    <t>['TreynorRatio20' 'alpha176' 'VEMA5' 'ROA' 'alpha181' 'RC12' 'TVSTD6'
- 'MassIndex' 'CashRateOfSalesLatest' 'SharpeRatio20' 'EquityTRate'
- 'alpha87' 'TotalProfitGrowRate']</t>
-  </si>
-  <si>
-    <t>['ATR6' 'alpha153' 'MA20' 'LossVariance60' 'ROC6' 'alpha174' 'VEMA10'
- 'alpha125' 'OBV20' 'Cmra' 'ChandeSU' 'OperatingProfitRatio' 'TVMA20']</t>
-  </si>
-  <si>
-    <t>['SalesCostRatio' 'Price1Y' 'alpha113' 'alpha172' 'PEHist20'
- 'KlingerOscillator' 'ARTDays' 'AD' 'APBMA' 'SharpeRatio120' 'QuickRatio'
- 'alpha20' 'MktValue']</t>
-  </si>
-  <si>
-    <t>['CmraCNE5' 'alpha52' 'AdminiExpenseRate' 'alpha75' 'DebtEquityRatio'
- 'TORPS' 'MTM' 'InformationRatio120' 'alpha46' 'alpha16' 'alpha48' 'NLSIZE'
- 'alpha163']</t>
-  </si>
-  <si>
-    <t>['alpha114' 'Ddnbt' 'SuperQuickRatio' 'PLRC12' 'alpha142' 'MLEV'
- 'BullPower' 'BIAS60' 'ROEDiluted' 'acd6' 'InterestCover' 'PEHist60'
- 'alpha63']</t>
-  </si>
-  <si>
-    <t>['alpha141' 'alpha182' 'DAVOL5' 'SUOI' 'alpha33' 'alpha62' 'alpha43'
- 'TVMA6' 'SUE' 'alpha56' 'Volumn3M' 'LongDebtToWorkingCapital' 'alpha53']</t>
-  </si>
-  <si>
-    <t>['EBITToTOR' 'DebtsAssetRatio' 'TotalProfitCostRatio' 'REVS5M60' 'alpha34'
- 'Beta20' 'alpha30' 'alpha161' 'OpeatingCycle' 'VROC6' 'alpha155' 'DDNSR'
- 'OperCashInToCurrentLiability']</t>
-  </si>
-  <si>
-    <t>['PeriodCostsRate' 'EPS' 'NetAssetPS' 'SRMI' 'GainVariance20' 'alpha107'
- 'alpha100' 'Volatility' 'REVS20Indu1' 'EquityToAsset'
- 'NonCurrentAssetsRatio' 'REVS5Indu1' 'VOL5']</t>
-  </si>
-  <si>
-    <t>['CurrentAssetsTRate' 'ARC' 'alpha39' 'VSTD10' 'alpha185' 'alpha84'
- 'TSEPToInterestBearDebt' 'alpha167' 'alpha83' 'NetProfitGrowRate'
- 'TVSTD20' 'alpha11' 'ADTM']</t>
-  </si>
-  <si>
-    <t>['AroonDown' 'EMA10' 'VMACD' 'alpha93' 'NOCFToOperatingNILatest'
- 'BearPower' 'Backwardadj' 'alpha66' 'alpha26' 'alpha149' 'Alpha60'
- 'TreynorRatio120' 'alpha67']</t>
-  </si>
-  <si>
-    <t>['Alpha120' 'alpha79' 'alpha131' 'alpha162' 'alpha145'
- 'OperatingRevenuePSLatest' 'ROEavg' 'alpha191' 'alpha76' 'alpha116'
- 'PCFIndu' 'EMV6' 'alpha109']</t>
-  </si>
-  <si>
-    <t>['VOL240' 'PEG5Y' 'alpha186' 'TaxRatio' 'Mfi' 'alpha69' 'alpha124' 'Hbeta'
- 'alpha99' 'LongDebtToAsset' 'NetProfitGrowRate3Y' 'alpha159'
- 'CurrentRatio']</t>
-  </si>
-  <si>
-    <t>['VOL60' 'alpha127' 'REVS250' 'GainVariance60' 'alpha104' 'Beta60' 'PVT12'
- 'IntangibleAssetRatio' 'alpha130' 'CurrentAssetsRatio' 'EMV14' 'BLEV'
- 'alpha27']</t>
-  </si>
-  <si>
-    <t>['Skewness' 'VOL10' 'NetProfitRatio' 'UpRVI' 'alpha139' 'alpha118' 'Mawvad'
- 'alpha152' 'alpha22' 'Ulcer5' 'NOCFTToNetDebt' 'DASTD' 'VEMA12']</t>
-  </si>
-  <si>
-    <t>['PEHist250' 'alpha117' 'InformationRatio20' 'alpha156' 'alpha19' 'rstr24'
- 'PVI' 'alpha88' 'DividendPaidRatio' 'alpha171' 'alpha89' 'alpha154'
- 'EMA120']</t>
-  </si>
-  <si>
-    <t>['UOS' 'PVT6' 'TreynorRatio60' 'BIAS10' 'LFLO' 'PBIndu' 'Psy NVI'
- 'Kurtosis60' 'MA10' 'CoppockCurve' 'RSI' 'Hsigma' 'AroonUp']</t>
-  </si>
-  <si>
-    <t>['NPParentCompanyCutYOY' 'alpha59' 'alpha94' 'alpha183'
- 'CapitalSurplusFundPS' 'SurplusReserveFundPS' 'alpha64' 'alpha179'
- 'SwingIndex' 'DebtTangibleEquityRatio' 'PEIndu' 'alpha184' 'alpha173']</t>
-  </si>
-  <si>
-    <t>['alpha128' 'NPCutToNp' 'alpha146' 'CR20' 'GrossIncomeRatio' 'VRPC12'
- 'alpha60' 'CashEquivalentPS' 'REVS5M20' 'alpha169' 'alpha105'
- 'GainVariance120' 'alpha95']</t>
-  </si>
-  <si>
-    <t>['MACD' 'OperatingProfitPSLatest' 'Ulcer10' 'RC24' 'Tobt' 'STOQ' 'alpha129'
- 'LossVariance120' 'VDIFF' 'EquityFixedAssetRatio' 'EGRO' 'alpha40'
- 'NetProfitCashCover']</t>
-  </si>
-  <si>
-    <t>['OperatingRevenueGrowRate' 'JDQS20' 'CTP5' 'EnterpriseFCFPS'
- 'AccountsPayablesTRate']</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
+  <si>
+    <t>['alpha103' 'alpha32' 'alpha35' 'alpha130' 'AccountsPayablesTDays'
+ 'PEHist250' 'NonCurrentAssetsRatio' 'alpha90']</t>
+  </si>
+  <si>
+    <t>['Backwardadj' 'alpha190' 'alpha96' 'DebtEquityRatio' 'NetAssetGrowRate'
+ 'SharpeRatio120' 'RC12' 'InformationRatio20']</t>
+  </si>
+  <si>
+    <t>['OperatingRevenuePSLatest' 'BIAS5' 'DDI' 'UpRVI' 'alpha41' 'alpha161'
+ 'STOQ' 'PLRC12']</t>
+  </si>
+  <si>
+    <t>['alpha29' 'Alpha60' 'EMV6' 'PE' 'alpha47' 'KDJ_J' 'BullPower' 'alpha75']</t>
+  </si>
+  <si>
+    <t>['alpha154' 'ATR6' 'SGRO' 'ROA' 'ForwardPE' 'DividendPS' 'DAVOL20'
+ 'InventoryTRate']</t>
+  </si>
+  <si>
+    <t>['AroonDown' 'alpha21' 'TVMA20' 'Hurst' 'minusDI' 'CurrentRatio' 'RSI'
+ 'VOL10']</t>
+  </si>
+  <si>
+    <t>['Volatility' 'PB' 'alpha126' 'IntangibleAssetRatio' 'OperatingRevenuePS'
+ 'OperatingNIToTPLatest' 'CurrentAssetsRatio' 'alpha166']</t>
+  </si>
+  <si>
+    <t>['Beta60' 'CashToCurrentLiability' 'MA10Close' 'alpha19' 'alpha135'
+ 'SalesCostRatio' 'alpha83' 'TangibleAToInteBearDebt']</t>
+  </si>
+  <si>
+    <t>['Rank1M' 'KDJ_K' 'alpha157' 'ROECutWeighted' 'JDQS20' 'BollUp' 'LCAP'
+ 'OBV20']</t>
+  </si>
+  <si>
+    <t>['BLEV' 'OperatingExpenseRate' 'ADX' 'Beta20' 'VOL20' 'UndividedProfitPS'
+ 'alpha137' 'VOL120']</t>
+  </si>
+  <si>
+    <t>['alpha49' 'alpha144' 'OperatingProfitPS' 'alpha42'
+ 'OperatingRevenueGrowRate5Y' 'Price1M' 'alpha183' 'alpha115']</t>
+  </si>
+  <si>
+    <t>['alpha79' 'OpeatingCycle' 'alpha63' 'EPS' 'acd20' 'KDJ_D' 'alpha105'
+ 'alpha177']</t>
+  </si>
+  <si>
+    <t>['DIFF' 'alpha53' 'alpha125' 'ASI' 'TRIX10' 'ROIC' 'NetProfitCashCover'
+ 'LFLO']</t>
+  </si>
+  <si>
+    <t>['NetNonOIToTP' 'NOCFToOperatingNILatest' 'PeriodCostsRate' 'DEGM'
+ 'PEHist120' 'Illiquidity' 'NPParentCompanyCutYOY' 'alpha81']</t>
+  </si>
+  <si>
+    <t>['PEHist60' 'ETOP5' 'alpha108' 'alpha66' 'VEMA5' 'Variance120'
+ 'ROEWeighted' 'alpha187']</t>
+  </si>
+  <si>
+    <t>['Psy NVI' 'alpha159' 'alpha77' 'alpha170' 'alpha78' 'alpha18' 'rstr12'
+ 'TVSTD20']</t>
+  </si>
+  <si>
+    <t>['alpha171' 'SUOI' 'DilutedEPS' 'Mfi' 'CMO' 'MTM' 'alpha140' 'alpha145']</t>
+  </si>
+  <si>
+    <t>['alpha17' 'alpha141' 'alpha36' 'Variance60' 'FixedAssetsTrate' 'Wvad'
+ 'VOL5' 'NetProfitGrowRate']</t>
+  </si>
+  <si>
+    <t>['MassIndex' 'alpha112' 'OperatingNIToTP' 'BBIC' 'alpha191'
+ 'GrossIncomeRatio' 'alpha134' 'alpha59']</t>
+  </si>
+  <si>
+    <t>['alpha142' 'Skewness' 'alpha129' 'alpha150' 'VSTD20' 'RetainedEarningsPS'
+ 'AroonUp' 'SharpeRatio60']</t>
+  </si>
+  <si>
+    <t>['alpha106' 'MPParentCompanyGrowRate' 'alpha127' 'NOCFTToOperatingNI'
+ 'alpha62' 'alpha25' 'BearPower' 'DHILO']</t>
+  </si>
+  <si>
+    <t>['ROEDiluted' 'OperatingProfitPSLatest' 'alpha23' 'VMACD' 'ROE5' 'alpha24'
+ 'PVT12' 'ROA5']</t>
+  </si>
+  <si>
+    <t>['alpha52' 'NetProfitRatio' 'minusDI' 'alpha189' 'alpha100' 'alpha55'
+ 'alpha184' 'InformationRatio120']</t>
+  </si>
+  <si>
+    <t>['VEMA10' 'Hbeta' 'alpha148' 'alpha155' 'LongTernDebtToAsset' 'STM'
+ 'alpha102' 'AccountsPayablesTRate']</t>
+  </si>
+  <si>
+    <t>['TotalProfitGrowRate' 'EquityToAsset' 'alpha176' 'DividendPaidRatio'
+ 'PEIndu' 'alpha91' 'alpha104' 'alpha179']</t>
+  </si>
+  <si>
+    <t>['Hsigma' 'alpha89' 'ROE' 'alpha44' 'PS' 'ROAEBITTM' 'NOCFToTLiability'
+ 'DAVOL10']</t>
+  </si>
+  <si>
+    <t>['NPToTOR' 'TreynorRatio60' 'NetAssetPS' 'alpha180' 'alpha181' 'alpha51'
+ 'alpha163' 'VROC6']</t>
+  </si>
+  <si>
+    <t>['CashEquivalentPS' 'ARTRate' 'OperatingProfitToTOR' 'CashConversionCycle'
+ 'DAVOL5' 'alpha167' 'SBM' 'ChaikinOscillator']</t>
+  </si>
+  <si>
+    <t>['TSEPToTotalCapital' 'alpha107' 'TRIX5' 'OperatingRevenueGrowRate'
+ 'LossVariance60' 'BIAS60' 'alpha110' 'DIZ']</t>
+  </si>
+  <si>
+    <t>['alpha124' 'CCI5' 'QuickRatio' 'ToTalAssetsTrate' 'alpha74' 'MTMMA' 'ADTM'
+ 'NetProfitGrowRate3Y']</t>
+  </si>
+  <si>
+    <t>['alpha68' 'CTOP' 'alpha92' 'alpha186' 'TangibleAToNetDebt' 'alpha69'
+ 'OperCashInToAsset' 'alpha123']</t>
+  </si>
+  <si>
+    <t>['Beta120' 'alpha101' 'alpha178' 'PLRC6' 'REVS20Indu1' 'DIFF' 'VDEA'
+ 'RealizedVolatility']</t>
+  </si>
+  <si>
+    <t>['alpha172' 'ATR14' 'TSEPToInterestBearDebt' 'TORPSLatest'
+ 'OperCashInToCurrentLiability' 'alpha160' 'VEMA26' 'alpha70']</t>
+  </si>
+  <si>
+    <t>['alpha14' 'Tobt' 'alpha156' 'CashRateOfSalesLatest' 'OperCashFlowPS'
+ 'alpha45' 'alpha152' 'alpha71']</t>
+  </si>
+  <si>
+    <t>['SaleServiceCashToOR' 'alpha158' 'CoppockCurve' 'CashDividendCover'
+ 'OperatingProfitRatio' 'alpha147' 'alpha57' 'EquityFixedAssetRatio']</t>
+  </si>
+  <si>
+    <t>['TORPS' 'alpha128' 'REVS5Indu1' 'alpha40' 'alpha113' 'acd6' 'OBV6'
+ 'alpha149']</t>
+  </si>
+  <si>
+    <t>['alpha120' 'alpha73' 'Variance20' 'AR' 'alpha30' 'DBCD' 'alpha121'
+ 'alpha116']</t>
+  </si>
+  <si>
+    <t>['alpha50' 'alpha175' 'EGRO' 'Ddnbt' 'EMA5' 'Kurtosis20' 'TreynorRatio20'
+ 'VRPC12']</t>
+  </si>
+  <si>
+    <t>['RetainedEarningRatio' 'alpha20' 'TreynorRatio120' 'MLEV' 'alpha162'
+ 'Price3M' 'alpha118' 'EMV14']</t>
+  </si>
+  <si>
+    <t>['alpha28' 'InventoryTDays' 'PBIndu' 'NetNonOIToTPLatest' 'DownRVI' 'AD'
+ 'TaxRatio' 'MoneyFlow20']</t>
+  </si>
+  <si>
+    <t>['VSTD10' 'ADXR' 'HsigmaCNE5' 'BR' 'KlingerOscillator' 'alpha146' 'Alpha20'
+ 'ARC']</t>
+  </si>
+  <si>
+    <t>['alpha72' 'LossVariance120' 'alpha54' 'STOM' 'BIAS20' 'DDNCR' 'VOSC'
+ 'alpha185']</t>
+  </si>
+  <si>
+    <t>['alpha111' 'alpha15' 'EA' 'PCFIndu' 'EBITToTOR' 'REVS5M20' 'alpha174'
+ 'NetCashFlowGrowRate']</t>
+  </si>
+  <si>
+    <t>['alpha80' 'alpha139' 'PVT' 'Fiftytwoweekhigh' 'alpha138' 'Alpha120' 'CR20'
+ 'GainVariance60']</t>
+  </si>
+  <si>
+    <t>['VDIFF' 'Volumn3M' 'alpha117' 'alpha97' 'MACD' 'VR' 'ROC6' 'APBMA']</t>
+  </si>
+  <si>
+    <t>['alpha151' 'alpha64' 'alpha188' 'alpha27' 'alpha94' 'alpha67' 'Mawvad'
+ 'BondsPayableToAsset']</t>
+  </si>
+  <si>
+    <t>['alpha168' 'DebtsAssetRatio' 'DividendCover' 'alpha34' 'MA5' 'alpha165'
+ 'CapitalSurplusFundPS' 'InvestCashGrowRate']</t>
+  </si>
+  <si>
+    <t>['ShareholderFCFPS' 'FinancialExpenseRate' 'GainVariance120' 'DDNSR'
+ 'PEHist20' 'OBV' 'revs20' 'SurplusReserveFundPS']</t>
+  </si>
+  <si>
+    <t>['PEG5Y' 'alpha95' 'alpha43' 'TVMA6' 'PlusDI' 'VOL240' 'Ulcer10'
+ 'TotalAssetGrowRate']</t>
+  </si>
+  <si>
+    <t>['Kurtosis60' 'STOA' 'alpha26' 'NLSIZE' 'FixAssetRatio' 'alpha86'
+ 'ChandeSD' 'alpha65']</t>
+  </si>
+  <si>
+    <t>['OperatingRevenueGrowRate3Y' 'alpha143' 'alpha38' 'CurrentAssetsTRate'
+ 'PVI' 'NPCutToNp' 'alpha164' 'CashRateOfSales']</t>
+  </si>
+  <si>
+    <t>['SharpeRatio20' 'CashFlowPS' 'alpha56' 'PVT6' 'UOS' 'GainVariance20'
+ 'Aroon' 'NOCFToInterestBearDebt']</t>
+  </si>
+  <si>
+    <t>['GainVariance120' 'alpha46' 'alpha85' 'InformationRatio60' 'VEMA12'
+ 'AdminiExpenseRate' 'SaleServiceCashToORLastest' 'alpha48']</t>
+  </si>
+  <si>
+    <t>['MktValue' 'ROEavg' 'AD20' 'alpha122' 'BIAS10' 'alpha136' 'SUE'
+ 'LongDebtToAsset']</t>
+  </si>
+  <si>
+    <t>['alpha173' 'LongDebtToWorkingCapital' 'alpha58' 'Kurtosis120' 'alpha33'
+ 'Beta252' 'OperCashGrowRate' 'alpha114']</t>
+  </si>
+  <si>
+    <t>['Rstr504' 'alpha84' 'GainVariance60' 'alpha88' 'ARTDays' 'alpha99'
+ 'alpha133' 'BollDown']</t>
+  </si>
+  <si>
+    <t>['alpha119' 'alpha87' 'NegMktValue' 'NOCFTToNetDebt' 'alpha98'
+ 'FinancingCashGrowRate' 'InteBearDebtToTotalCapital' 'alpha82']</t>
+  </si>
+  <si>
+    <t>['alpha16' 'TotalProfitCostRatio' 'SuperQuickRatio' 'revs10' 'CCI10'
+ 'alpha31' 'ChandeSU' 'MA10RegressCoeff6']</t>
+  </si>
+  <si>
+    <t>['GainVariance20' 'alpha22' 'CFO2EV' 'EnterpriseFCFPS' 'alpha76' 'TVSTD6'
+ 'alpha12' 'Cmra']</t>
+  </si>
+  <si>
+    <t>['InterestCover' 'VOL60' 'alpha60' 'OperatingProfitGrowRate' 'alpha61'
+ 'ROECut' 'SRMI' 'StaticPE']</t>
+  </si>
+  <si>
+    <t>['alpha153' 'DASTD' 'ROAEBIT' 'alpha182' 'CTP5' 'CmraCNE5' 'Volumn1M'
+ 'REVS60']</t>
+  </si>
+  <si>
+    <t>['DebtTangibleEquityRatio' 'Dvrat' 'SwingIndex' '3' 'Ulcer5' 'alpha37'
+ 'alpha11' 'alpha93']</t>
+  </si>
+  <si>
+    <t>['alpha109' 'EquityTRate' 'alpha132' 'PCF' 'alpha169' 'alpha39' 'alpha131'
+ 'alpha13']</t>
+  </si>
+  <si>
+    <t>吴欣亭</t>
+  </si>
+  <si>
+    <t>鲁思丞</t>
+  </si>
+  <si>
+    <t>丁湛镭</t>
+  </si>
+  <si>
+    <t>张倩茹</t>
+  </si>
+  <si>
+    <t>陈相杰</t>
+  </si>
+  <si>
+    <t>黄斐</t>
+  </si>
+  <si>
+    <t>陈超</t>
+  </si>
+  <si>
+    <t>谢昊</t>
+  </si>
+  <si>
+    <t>林鸿</t>
+  </si>
+  <si>
+    <t>李乾</t>
+  </si>
+  <si>
+    <t>黄媛</t>
+  </si>
+  <si>
+    <t>刘晓晨</t>
+  </si>
+  <si>
+    <t>陈钦德</t>
+  </si>
+  <si>
+    <t>张彦麟</t>
+  </si>
+  <si>
+    <t>袁皓玮</t>
+  </si>
+  <si>
+    <t>郭增岳</t>
+  </si>
+  <si>
+    <t>查玥</t>
+  </si>
+  <si>
+    <t>宋伦</t>
+  </si>
+  <si>
+    <t>罗丰</t>
+  </si>
+  <si>
+    <t>黄瀚祺</t>
+  </si>
+  <si>
+    <t>张安翔</t>
+  </si>
+  <si>
+    <t>唐越凡</t>
+  </si>
+  <si>
+    <t>陈杰</t>
+  </si>
+  <si>
+    <t>谢政航</t>
+  </si>
+  <si>
+    <t>刘君惠</t>
+  </si>
+  <si>
+    <t>刘培玺</t>
+  </si>
+  <si>
+    <t>曾星宇</t>
+  </si>
+  <si>
+    <t>叶梁</t>
+  </si>
+  <si>
+    <t>孙国铭</t>
+  </si>
+  <si>
+    <t>黄嘉豪</t>
+  </si>
+  <si>
+    <t>蔡庆鹏</t>
+  </si>
+  <si>
+    <t>陈琪仁</t>
+  </si>
+  <si>
+    <t>陈栩淦</t>
+  </si>
+  <si>
+    <t>罗晓牧</t>
+  </si>
+  <si>
+    <t>黎梓勇</t>
+  </si>
+  <si>
+    <t>徐艺</t>
+  </si>
+  <si>
+    <t>方立汉</t>
+  </si>
+  <si>
+    <t>戴芳浓</t>
+  </si>
+  <si>
+    <t>赖文玉</t>
+  </si>
+  <si>
+    <t>岑萧萍</t>
+  </si>
+  <si>
+    <t>陈洁玉</t>
+  </si>
+  <si>
+    <t>童彦</t>
+  </si>
+  <si>
+    <t>胡耀文</t>
+  </si>
+  <si>
+    <t>杨文滔</t>
+  </si>
+  <si>
+    <t>熊弗</t>
+  </si>
+  <si>
+    <t>胡小鹏</t>
+  </si>
+  <si>
+    <t>顾俊伦</t>
+  </si>
+  <si>
+    <t>余艾锶</t>
+  </si>
+  <si>
+    <t>葛雨</t>
+  </si>
+  <si>
+    <t>张寒</t>
+  </si>
+  <si>
+    <t>陈琰钰</t>
+  </si>
+  <si>
+    <t>李佳瑛</t>
+  </si>
+  <si>
+    <t>黄泽睿</t>
+  </si>
+  <si>
+    <t>陈南浩</t>
+  </si>
+  <si>
+    <t>张华鸿</t>
+  </si>
+  <si>
+    <t>谭红叶</t>
+  </si>
+  <si>
+    <t>张智颖</t>
+  </si>
+  <si>
+    <t>陈熙元</t>
+  </si>
+  <si>
+    <t>王馨桐</t>
+  </si>
+  <si>
+    <t>于佳佳</t>
+  </si>
+  <si>
+    <t>程理政</t>
+  </si>
+  <si>
+    <t>张翔</t>
+  </si>
+  <si>
+    <t>刘越钊</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="9"/>
+      <name val="PingFang SC"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -247,16 +503,16 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF2B2B2B"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF2B2B2B"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF2B2B2B"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF2B2B2B"/>
       </bottom>
       <diagonal/>
     </border>
@@ -267,19 +523,27 @@
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -321,7 +585,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -353,9 +617,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -387,6 +669,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -562,342 +862,521 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="1">
-        <v>0</v>
+      <c r="A1" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="1">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="1">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="1">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="1">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="1">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="1">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="1">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="1">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="1">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="1">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="1">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="1">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="1">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="1">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="1">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="B17" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="1">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="B18" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="1">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="B19" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="1">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="1">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="B21" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="1">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="B22" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="1">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="B23" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="1">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="B24" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="1">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="B25" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="1">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="B26" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="1">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="1">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="B28" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="1">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="B29" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="1">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="B30" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="1">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="B31" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="1">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="B32" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="1">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="B33" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="1">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="B34" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="1">
-        <v>34</v>
+      <c r="A35" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="B35" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="1">
-        <v>35</v>
+      <c r="A36" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="B36" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="1">
-        <v>36</v>
+      <c r="A37" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="B37" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="1">
-        <v>37</v>
+      <c r="A38" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="B38" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="1">
-        <v>38</v>
+      <c r="A39" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="B39" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="1">
-        <v>39</v>
+      <c r="A40" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="B40" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="1">
-        <v>40</v>
+      <c r="A41" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="B41" t="s">
         <v>40</v>
       </c>
     </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B53" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B54" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B55" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B56" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B57" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B58" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B59" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B60" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B61" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B62" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B63" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>